--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.24453389530925</v>
+        <v>8.426422666666666</v>
       </c>
       <c r="H2">
-        <v>5.24453389530925</v>
+        <v>25.279268</v>
       </c>
       <c r="I2">
-        <v>0.08069544677478313</v>
+        <v>0.1151758588783328</v>
       </c>
       <c r="J2">
-        <v>0.08069544677478313</v>
+        <v>0.1151758588783328</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N2">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q2">
-        <v>553.385969923257</v>
+        <v>948.0853966523518</v>
       </c>
       <c r="R2">
-        <v>553.385969923257</v>
+        <v>8532.768569871167</v>
       </c>
       <c r="S2">
-        <v>0.02537490564505159</v>
+        <v>0.03772369852637737</v>
       </c>
       <c r="T2">
-        <v>0.02537490564505159</v>
+        <v>0.03772369852637737</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.24453389530925</v>
+        <v>8.426422666666666</v>
       </c>
       <c r="H3">
-        <v>5.24453389530925</v>
+        <v>25.279268</v>
       </c>
       <c r="I3">
-        <v>0.08069544677478313</v>
+        <v>0.1151758588783328</v>
       </c>
       <c r="J3">
-        <v>0.08069544677478313</v>
+        <v>0.1151758588783328</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N3">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q3">
-        <v>556.8409822355463</v>
+        <v>895.8506260969625</v>
       </c>
       <c r="R3">
-        <v>556.8409822355463</v>
+        <v>8062.655634872664</v>
       </c>
       <c r="S3">
-        <v>0.02553333143860576</v>
+        <v>0.03564531113217879</v>
       </c>
       <c r="T3">
-        <v>0.02553333143860576</v>
+        <v>0.0356453111321788</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.24453389530925</v>
+        <v>8.426422666666666</v>
       </c>
       <c r="H4">
-        <v>5.24453389530925</v>
+        <v>25.279268</v>
       </c>
       <c r="I4">
-        <v>0.08069544677478313</v>
+        <v>0.1151758588783328</v>
       </c>
       <c r="J4">
-        <v>0.08069544677478313</v>
+        <v>0.1151758588783328</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N4">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q4">
-        <v>649.6112402075322</v>
+        <v>1050.704590844987</v>
       </c>
       <c r="R4">
-        <v>649.6112402075322</v>
+        <v>9456.341317604887</v>
       </c>
       <c r="S4">
-        <v>0.02978720969112578</v>
+        <v>0.04180684921977662</v>
       </c>
       <c r="T4">
-        <v>0.02978720969112578</v>
+        <v>0.04180684921977663</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.5386694558981</v>
+        <v>11.78712033333333</v>
       </c>
       <c r="H5">
-        <v>11.5386694558981</v>
+        <v>35.361361</v>
       </c>
       <c r="I5">
-        <v>0.1775406748277554</v>
+        <v>0.1611112760180311</v>
       </c>
       <c r="J5">
-        <v>0.1775406748277554</v>
+        <v>0.1611112760180311</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N5">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q5">
-        <v>1217.522455939721</v>
+        <v>1326.208890615504</v>
       </c>
       <c r="R5">
-        <v>1217.522455939721</v>
+        <v>11935.88001553954</v>
       </c>
       <c r="S5">
-        <v>0.05582815452384223</v>
+        <v>0.0527689853142266</v>
       </c>
       <c r="T5">
-        <v>0.05582815452384223</v>
+        <v>0.0527689853142266</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.5386694558981</v>
+        <v>11.78712033333333</v>
       </c>
       <c r="H6">
-        <v>11.5386694558981</v>
+        <v>35.361361</v>
       </c>
       <c r="I6">
-        <v>0.1775406748277554</v>
+        <v>0.1611112760180311</v>
       </c>
       <c r="J6">
-        <v>0.1775406748277554</v>
+        <v>0.1611112760180311</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N6">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q6">
-        <v>1225.123940806321</v>
+        <v>1253.141403916075</v>
       </c>
       <c r="R6">
-        <v>1225.123940806321</v>
+        <v>11278.27263524468</v>
       </c>
       <c r="S6">
-        <v>0.05617671226064033</v>
+        <v>0.04986167775515863</v>
       </c>
       <c r="T6">
-        <v>0.05617671226064033</v>
+        <v>0.04986167775515864</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.5386694558981</v>
+        <v>11.78712033333333</v>
       </c>
       <c r="H7">
-        <v>11.5386694558981</v>
+        <v>35.361361</v>
       </c>
       <c r="I7">
-        <v>0.1775406748277554</v>
+        <v>0.1611112760180311</v>
       </c>
       <c r="J7">
-        <v>0.1775406748277554</v>
+        <v>0.1611112760180311</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N7">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q7">
-        <v>1429.230800146968</v>
+        <v>1469.755545976525</v>
       </c>
       <c r="R7">
-        <v>1429.230800146968</v>
+        <v>13227.79991378873</v>
       </c>
       <c r="S7">
-        <v>0.0655358080432728</v>
+        <v>0.05848061294864589</v>
       </c>
       <c r="T7">
-        <v>0.0655358080432728</v>
+        <v>0.05848061294864591</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.2084920284152</v>
+        <v>52.94781866666667</v>
       </c>
       <c r="H8">
-        <v>48.2084920284152</v>
+        <v>158.843456</v>
       </c>
       <c r="I8">
-        <v>0.7417638783974614</v>
+        <v>0.7237128651036362</v>
       </c>
       <c r="J8">
-        <v>0.7417638783974614</v>
+        <v>0.7237128651036362</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N8">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q8">
-        <v>5086.801544660253</v>
+        <v>5957.338677187584</v>
       </c>
       <c r="R8">
-        <v>5086.801544660253</v>
+        <v>53616.04809468825</v>
       </c>
       <c r="S8">
-        <v>0.2332496959558929</v>
+        <v>0.2370386138962524</v>
       </c>
       <c r="T8">
-        <v>0.2332496959558929</v>
+        <v>0.2370386138962524</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>48.2084920284152</v>
+        <v>52.94781866666667</v>
       </c>
       <c r="H9">
-        <v>48.2084920284152</v>
+        <v>158.843456</v>
       </c>
       <c r="I9">
-        <v>0.7417638783974614</v>
+        <v>0.7237128651036362</v>
       </c>
       <c r="J9">
-        <v>0.7417638783974614</v>
+        <v>0.7237128651036362</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N9">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q9">
-        <v>5118.560503004302</v>
+        <v>5629.119067411499</v>
       </c>
       <c r="R9">
-        <v>5118.560503004302</v>
+        <v>50662.07160670349</v>
       </c>
       <c r="S9">
-        <v>0.2347059680971565</v>
+        <v>0.2239789700568289</v>
       </c>
       <c r="T9">
-        <v>0.2347059680971565</v>
+        <v>0.223978970056829</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.2084920284152</v>
+        <v>52.94781866666667</v>
       </c>
       <c r="H10">
-        <v>48.2084920284152</v>
+        <v>158.843456</v>
       </c>
       <c r="I10">
-        <v>0.7417638783974614</v>
+        <v>0.7237128651036362</v>
       </c>
       <c r="J10">
-        <v>0.7417638783974614</v>
+        <v>0.7237128651036362</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N10">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q10">
-        <v>5971.31774152965</v>
+        <v>6602.151155835834</v>
       </c>
       <c r="R10">
-        <v>5971.31774152965</v>
+        <v>59419.3604025225</v>
       </c>
       <c r="S10">
-        <v>0.2738082143444119</v>
+        <v>0.2626952811505548</v>
       </c>
       <c r="T10">
-        <v>0.2738082143444119</v>
+        <v>0.2626952811505548</v>
       </c>
     </row>
   </sheetData>
